--- a/data/pca/factorExposure/factorExposure_2009-08-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01765561473320451</v>
+        <v>0.01701999199001464</v>
       </c>
       <c r="C2">
-        <v>0.001576628877477106</v>
+        <v>0.000986965882513103</v>
       </c>
       <c r="D2">
-        <v>-0.003726815101449385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009555432962351021</v>
+      </c>
+      <c r="E2">
+        <v>-0.002160635334630373</v>
+      </c>
+      <c r="F2">
+        <v>-0.0134558373022607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09462852340070801</v>
+        <v>0.09326056667142954</v>
       </c>
       <c r="C4">
-        <v>0.02084370244953359</v>
+        <v>0.01463461026878443</v>
       </c>
       <c r="D4">
-        <v>-0.06643447032793592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08353488916760447</v>
+      </c>
+      <c r="E4">
+        <v>-0.02849084176499142</v>
+      </c>
+      <c r="F4">
+        <v>0.03335623228207468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1487449099751418</v>
+        <v>0.1596281256194067</v>
       </c>
       <c r="C6">
-        <v>0.02774654767225641</v>
+        <v>0.02717485337695665</v>
       </c>
       <c r="D6">
-        <v>0.02559158798992982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02527540689532505</v>
+      </c>
+      <c r="E6">
+        <v>-0.009077313175746001</v>
+      </c>
+      <c r="F6">
+        <v>0.04191735684095562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06389730313432573</v>
+        <v>0.06365139974337902</v>
       </c>
       <c r="C7">
-        <v>0.002907012122621239</v>
+        <v>-0.001621067596056739</v>
       </c>
       <c r="D7">
-        <v>-0.03990523600276071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05237830210461292</v>
+      </c>
+      <c r="E7">
+        <v>-0.01211606560177305</v>
+      </c>
+      <c r="F7">
+        <v>0.04676198533431839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06324763036703639</v>
+        <v>0.0577818446179854</v>
       </c>
       <c r="C8">
-        <v>-0.00985402012072035</v>
+        <v>-0.01310988990281157</v>
       </c>
       <c r="D8">
-        <v>-0.01812018427498823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03154621667112346</v>
+      </c>
+      <c r="E8">
+        <v>-0.0176001433792436</v>
+      </c>
+      <c r="F8">
+        <v>-0.02574293289686059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07288624602699674</v>
+        <v>0.07082500258168954</v>
       </c>
       <c r="C9">
-        <v>0.01721507973717556</v>
+        <v>0.01031179777032691</v>
       </c>
       <c r="D9">
-        <v>-0.0689534486775165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08711399083729696</v>
+      </c>
+      <c r="E9">
+        <v>-0.02404329599560596</v>
+      </c>
+      <c r="F9">
+        <v>0.04713687834930435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08305113339365348</v>
+        <v>0.08975351491414094</v>
       </c>
       <c r="C10">
-        <v>0.01257906399664817</v>
+        <v>0.02061153116808318</v>
       </c>
       <c r="D10">
-        <v>0.167380973729542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1628461374240725</v>
+      </c>
+      <c r="E10">
+        <v>0.0320271281110534</v>
+      </c>
+      <c r="F10">
+        <v>-0.05749465940708918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09320270779467271</v>
+        <v>0.08825058039151137</v>
       </c>
       <c r="C11">
-        <v>0.01807236736954256</v>
+        <v>0.01057080432664902</v>
       </c>
       <c r="D11">
-        <v>-0.09703773340198535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169285842385496</v>
+      </c>
+      <c r="E11">
+        <v>-0.04632365282784894</v>
+      </c>
+      <c r="F11">
+        <v>0.02307792974722153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09931396659105146</v>
+        <v>0.09154342537987951</v>
       </c>
       <c r="C12">
-        <v>0.01595374528486249</v>
+        <v>0.007877001997444566</v>
       </c>
       <c r="D12">
-        <v>-0.1010926668721589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317394669652949</v>
+      </c>
+      <c r="E12">
+        <v>-0.04575060338179136</v>
+      </c>
+      <c r="F12">
+        <v>0.03160633476333451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0443171474531112</v>
+        <v>0.04167517142427689</v>
       </c>
       <c r="C13">
-        <v>0.005952020139801883</v>
+        <v>0.002475850377344404</v>
       </c>
       <c r="D13">
-        <v>-0.03104714613967704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05358938953370451</v>
+      </c>
+      <c r="E13">
+        <v>0.003633540301861637</v>
+      </c>
+      <c r="F13">
+        <v>0.001044165325564331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02003276082791294</v>
+        <v>0.02382330935670085</v>
       </c>
       <c r="C14">
-        <v>0.01524024337626117</v>
+        <v>0.01374584237864357</v>
       </c>
       <c r="D14">
-        <v>-0.02484622123802781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03346689081641575</v>
+      </c>
+      <c r="E14">
+        <v>-0.01896228752902908</v>
+      </c>
+      <c r="F14">
+        <v>0.01383452678068178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03451751756180042</v>
+        <v>0.03299657102614131</v>
       </c>
       <c r="C15">
-        <v>0.007722889694880241</v>
+        <v>0.004666778223782099</v>
       </c>
       <c r="D15">
-        <v>-0.03063804647953175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04493017797615195</v>
+      </c>
+      <c r="E15">
+        <v>-0.005928659415682543</v>
+      </c>
+      <c r="F15">
+        <v>0.0255180298657168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07838620281596399</v>
+        <v>0.07399934099277347</v>
       </c>
       <c r="C16">
-        <v>0.008816437690663535</v>
+        <v>0.001066076254866006</v>
       </c>
       <c r="D16">
-        <v>-0.09932035648784095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274955268331269</v>
+      </c>
+      <c r="E16">
+        <v>-0.06051532909936965</v>
+      </c>
+      <c r="F16">
+        <v>0.02770590211448941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008633245892771103</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002422371111508559</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001590479913474409</v>
+      </c>
+      <c r="E17">
+        <v>-0.001073041537430853</v>
+      </c>
+      <c r="F17">
+        <v>-0.00224304893260235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01734167325463553</v>
+        <v>0.03735620875569174</v>
       </c>
       <c r="C18">
-        <v>-0.003155931704285768</v>
+        <v>-0.002730558253282813</v>
       </c>
       <c r="D18">
-        <v>-0.03044342479873379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01560222524792291</v>
+      </c>
+      <c r="E18">
+        <v>0.008493408102704825</v>
+      </c>
+      <c r="F18">
+        <v>-0.00883471484956269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06593385066616722</v>
+        <v>0.06266742501480713</v>
       </c>
       <c r="C20">
-        <v>0.00680875232912921</v>
+        <v>0.0003996327955956453</v>
       </c>
       <c r="D20">
-        <v>-0.05147431775423125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0769953593835601</v>
+      </c>
+      <c r="E20">
+        <v>-0.05553076977479402</v>
+      </c>
+      <c r="F20">
+        <v>0.03003561450593382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04030872160491591</v>
+        <v>0.04076245381693769</v>
       </c>
       <c r="C21">
-        <v>0.009745976237734317</v>
+        <v>0.006348988113963872</v>
       </c>
       <c r="D21">
-        <v>-0.0313795492424292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03856887395218445</v>
+      </c>
+      <c r="E21">
+        <v>0.0005999864388728919</v>
+      </c>
+      <c r="F21">
+        <v>-0.02393207994865433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0407269924716103</v>
+        <v>0.04354556804850782</v>
       </c>
       <c r="C22">
-        <v>0.001024685806576688</v>
+        <v>0.000662829370467048</v>
       </c>
       <c r="D22">
-        <v>0.0120548802379737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0039760891580653</v>
+      </c>
+      <c r="E22">
+        <v>-0.03643492804227116</v>
+      </c>
+      <c r="F22">
+        <v>-0.03890662462859154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04069025213860306</v>
+        <v>0.04352136290553344</v>
       </c>
       <c r="C23">
-        <v>0.001014803285271984</v>
+        <v>0.000654287610768726</v>
       </c>
       <c r="D23">
-        <v>0.01203445895287185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003991607622839411</v>
+      </c>
+      <c r="E23">
+        <v>-0.0366176931034471</v>
+      </c>
+      <c r="F23">
+        <v>-0.03886729819620174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0845981771361905</v>
+        <v>0.07990517032209599</v>
       </c>
       <c r="C24">
-        <v>0.009126139652290463</v>
+        <v>0.001802607367536103</v>
       </c>
       <c r="D24">
-        <v>-0.10384603898391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198169403172593</v>
+      </c>
+      <c r="E24">
+        <v>-0.04845791198808144</v>
+      </c>
+      <c r="F24">
+        <v>0.03000557052218822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08960488960463707</v>
+        <v>0.08474518949294933</v>
       </c>
       <c r="C25">
-        <v>0.01157277629512771</v>
+        <v>0.004352691366869658</v>
       </c>
       <c r="D25">
-        <v>-0.09055732637550122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093386955968274</v>
+      </c>
+      <c r="E25">
+        <v>-0.03210724049146094</v>
+      </c>
+      <c r="F25">
+        <v>0.02680113795298074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05947229608360729</v>
+        <v>0.05928494268051414</v>
       </c>
       <c r="C26">
-        <v>0.01812026513404466</v>
+        <v>0.014578146948696</v>
       </c>
       <c r="D26">
-        <v>-0.01783488760361695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04218659781904267</v>
+      </c>
+      <c r="E26">
+        <v>-0.02979665214361415</v>
+      </c>
+      <c r="F26">
+        <v>-0.005138159458354523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1301468827536175</v>
+        <v>0.1412345841016489</v>
       </c>
       <c r="C28">
-        <v>0.01127572409729491</v>
+        <v>0.0221754620053937</v>
       </c>
       <c r="D28">
-        <v>0.2717112547850766</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613871427731316</v>
+      </c>
+      <c r="E28">
+        <v>0.06760199737865805</v>
+      </c>
+      <c r="F28">
+        <v>0.0038864104196069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02636192360634639</v>
+        <v>0.02872181908176922</v>
       </c>
       <c r="C29">
-        <v>0.009827624314269175</v>
+        <v>0.008765923862825714</v>
       </c>
       <c r="D29">
-        <v>-0.02227308420448065</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03118773289294092</v>
+      </c>
+      <c r="E29">
+        <v>-0.01394343260452532</v>
+      </c>
+      <c r="F29">
+        <v>-0.01258081640211734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06603292344623038</v>
+        <v>0.05906001335495104</v>
       </c>
       <c r="C30">
-        <v>0.01034833950775839</v>
+        <v>0.002750463438346626</v>
       </c>
       <c r="D30">
-        <v>-0.06083458584167122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08794884081338875</v>
+      </c>
+      <c r="E30">
+        <v>-0.01374595043110802</v>
+      </c>
+      <c r="F30">
+        <v>0.07985087555521081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0512106258063903</v>
+        <v>0.05135042393776138</v>
       </c>
       <c r="C31">
-        <v>0.01713346553779982</v>
+        <v>0.01576954948836663</v>
       </c>
       <c r="D31">
-        <v>-0.01999017052715912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0244443441817122</v>
+      </c>
+      <c r="E31">
+        <v>-0.02874275625363694</v>
+      </c>
+      <c r="F31">
+        <v>-0.001156122638108172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04755106224298439</v>
+        <v>0.05132430894072641</v>
       </c>
       <c r="C32">
-        <v>0.002294175059897688</v>
+        <v>-0.001788036606780226</v>
       </c>
       <c r="D32">
-        <v>-0.01970587300736845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03584050337880537</v>
+      </c>
+      <c r="E32">
+        <v>-0.0342644824949898</v>
+      </c>
+      <c r="F32">
+        <v>0.003827497841994748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09316117591267208</v>
+        <v>0.08860909136061418</v>
       </c>
       <c r="C33">
-        <v>0.01410359165720566</v>
+        <v>0.006417815709938716</v>
       </c>
       <c r="D33">
-        <v>-0.07820304926233546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1024451843784106</v>
+      </c>
+      <c r="E33">
+        <v>-0.04506889218643866</v>
+      </c>
+      <c r="F33">
+        <v>0.03925504029985449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07148379838849053</v>
+        <v>0.0678408265567987</v>
       </c>
       <c r="C34">
-        <v>0.01627318901936829</v>
+        <v>0.01009178883200543</v>
       </c>
       <c r="D34">
-        <v>-0.08524901853379886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098922838704153</v>
+      </c>
+      <c r="E34">
+        <v>-0.03514571769014886</v>
+      </c>
+      <c r="F34">
+        <v>0.03324813464322431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02389305698006983</v>
+        <v>0.02588088094902827</v>
       </c>
       <c r="C35">
-        <v>0.002975015613965693</v>
+        <v>0.002675318365040073</v>
       </c>
       <c r="D35">
-        <v>-0.006311831816061884</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01209209724096578</v>
+      </c>
+      <c r="E35">
+        <v>-0.01273086976704771</v>
+      </c>
+      <c r="F35">
+        <v>0.001341083352493816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02684635219180455</v>
+        <v>0.02755342867333455</v>
       </c>
       <c r="C36">
-        <v>0.008010059294440441</v>
+        <v>0.006829247200789581</v>
       </c>
       <c r="D36">
-        <v>-0.03863236846763743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03965000567701855</v>
+      </c>
+      <c r="E36">
+        <v>-0.01677641281000982</v>
+      </c>
+      <c r="F36">
+        <v>0.01518334333739352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0002170874681734071</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005007484422489394</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002351302827981536</v>
+      </c>
+      <c r="E37">
+        <v>0.0006005304931335964</v>
+      </c>
+      <c r="F37">
+        <v>-0.00171781629358706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1170840707426043</v>
+        <v>0.1037724609923588</v>
       </c>
       <c r="C39">
-        <v>0.02487614366046504</v>
+        <v>0.01575940262033645</v>
       </c>
       <c r="D39">
-        <v>-0.1401491252216972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538538786307594</v>
+      </c>
+      <c r="E39">
+        <v>-0.05912621338105851</v>
+      </c>
+      <c r="F39">
+        <v>0.0311675335790615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04002463459848669</v>
+        <v>0.0435781081628933</v>
       </c>
       <c r="C40">
-        <v>0.009646287611898426</v>
+        <v>0.007449230045754008</v>
       </c>
       <c r="D40">
-        <v>-0.00959616946444866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03045707222345409</v>
+      </c>
+      <c r="E40">
+        <v>-0.001745849599770104</v>
+      </c>
+      <c r="F40">
+        <v>-0.01891292789158637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02537921109111236</v>
+        <v>0.02756865597868214</v>
       </c>
       <c r="C41">
-        <v>0.00714056570372138</v>
+        <v>0.006855575028720549</v>
       </c>
       <c r="D41">
-        <v>-0.009403303626259595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01081850838111656</v>
+      </c>
+      <c r="E41">
+        <v>-0.01198232366661231</v>
+      </c>
+      <c r="F41">
+        <v>-0.005674101477408452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04225396938343218</v>
+        <v>0.04101660525413219</v>
       </c>
       <c r="C43">
-        <v>0.008258228918734118</v>
+        <v>0.007224262659951555</v>
       </c>
       <c r="D43">
-        <v>-0.01355786696030973</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01888151670584827</v>
+      </c>
+      <c r="E43">
+        <v>-0.02542700506390926</v>
+      </c>
+      <c r="F43">
+        <v>-0.01286161747743947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07499548383830056</v>
+        <v>0.07949282294755547</v>
       </c>
       <c r="C44">
-        <v>0.02679124384290044</v>
+        <v>0.01922746971846298</v>
       </c>
       <c r="D44">
-        <v>-0.07862365163536424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09674062166284483</v>
+      </c>
+      <c r="E44">
+        <v>-0.06132457988170813</v>
+      </c>
+      <c r="F44">
+        <v>0.1588646930620353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02115298263829112</v>
+        <v>0.02336650236936767</v>
       </c>
       <c r="C46">
-        <v>0.003908606038156977</v>
+        <v>0.003343534209787828</v>
       </c>
       <c r="D46">
-        <v>-0.005928884154776467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01278406135065483</v>
+      </c>
+      <c r="E46">
+        <v>-0.02608098863790941</v>
+      </c>
+      <c r="F46">
+        <v>-0.007050914459459299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05323843627442307</v>
+        <v>0.0524888786410881</v>
       </c>
       <c r="C47">
-        <v>0.004683844645626103</v>
+        <v>0.00386469763498673</v>
       </c>
       <c r="D47">
-        <v>-0.006333949635304537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01145203556777239</v>
+      </c>
+      <c r="E47">
+        <v>-0.02333017415890868</v>
+      </c>
+      <c r="F47">
+        <v>-0.0323173745482395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04961844930634166</v>
+        <v>0.0500432908946162</v>
       </c>
       <c r="C48">
-        <v>0.005131603037045306</v>
+        <v>0.00215571453440604</v>
       </c>
       <c r="D48">
-        <v>-0.04116277762445101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0506115515561975</v>
+      </c>
+      <c r="E48">
+        <v>0.004813686002856234</v>
+      </c>
+      <c r="F48">
+        <v>0.009663391777283217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2022336607705147</v>
+        <v>0.2000969554837244</v>
       </c>
       <c r="C49">
-        <v>0.02161512305985131</v>
+        <v>0.01920472582928778</v>
       </c>
       <c r="D49">
-        <v>0.01718111773038353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00759078099925512</v>
+      </c>
+      <c r="E49">
+        <v>-0.0306620478018125</v>
+      </c>
+      <c r="F49">
+        <v>0.04077909060706773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05041635569560461</v>
+        <v>0.05179868969709506</v>
       </c>
       <c r="C50">
-        <v>0.01308301246387339</v>
+        <v>0.01147256172579303</v>
       </c>
       <c r="D50">
-        <v>-0.01979028620112018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02359333775767951</v>
+      </c>
+      <c r="E50">
+        <v>-0.02991241896096003</v>
+      </c>
+      <c r="F50">
+        <v>0.00992509118799007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1562062876257524</v>
+        <v>0.1500598485850425</v>
       </c>
       <c r="C52">
-        <v>0.02006520315351401</v>
+        <v>0.01814867120441993</v>
       </c>
       <c r="D52">
-        <v>-0.04875535498031389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04085137922449777</v>
+      </c>
+      <c r="E52">
+        <v>-0.02083312219946755</v>
+      </c>
+      <c r="F52">
+        <v>0.04347142990123774</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1730493287382903</v>
+        <v>0.1712021893785497</v>
       </c>
       <c r="C53">
-        <v>0.01954451156026077</v>
+        <v>0.02026724572394233</v>
       </c>
       <c r="D53">
-        <v>-0.01411411066232192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003488033513124156</v>
+      </c>
+      <c r="E53">
+        <v>-0.02817847109209726</v>
+      </c>
+      <c r="F53">
+        <v>0.07340604339365671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01793403150997793</v>
+        <v>0.02063864323149427</v>
       </c>
       <c r="C54">
-        <v>0.01269927088266507</v>
+        <v>0.01114287273110381</v>
       </c>
       <c r="D54">
-        <v>-0.02770350857468718</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03480943228400562</v>
+      </c>
+      <c r="E54">
+        <v>-0.02221166536668651</v>
+      </c>
+      <c r="F54">
+        <v>-0.001800880069730292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1156211916949845</v>
+        <v>0.1153354159576131</v>
       </c>
       <c r="C55">
-        <v>0.01763867717759339</v>
+        <v>0.01789766952094255</v>
       </c>
       <c r="D55">
-        <v>-0.01130735786447378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006593817574820434</v>
+      </c>
+      <c r="E55">
+        <v>-0.02339223836591741</v>
+      </c>
+      <c r="F55">
+        <v>0.04688954658056978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1791582700289374</v>
+        <v>0.1772190417281992</v>
       </c>
       <c r="C56">
-        <v>0.01727761293135101</v>
+        <v>0.01829714966263314</v>
       </c>
       <c r="D56">
-        <v>-0.01027998672893445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004047512513085628</v>
+      </c>
+      <c r="E56">
+        <v>-0.03175544086945374</v>
+      </c>
+      <c r="F56">
+        <v>0.05321023109039806</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0492635996135808</v>
+        <v>0.04525010122350104</v>
       </c>
       <c r="C58">
-        <v>0.005772168892687893</v>
+        <v>-0.0002507711147317346</v>
       </c>
       <c r="D58">
-        <v>-0.05639011515251417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07187827790111745</v>
+      </c>
+      <c r="E58">
+        <v>-0.03318734355962598</v>
+      </c>
+      <c r="F58">
+        <v>-0.03661105041800961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1604272094468838</v>
+        <v>0.1669408096779668</v>
       </c>
       <c r="C59">
-        <v>0.01307369782482162</v>
+        <v>0.02256598707368015</v>
       </c>
       <c r="D59">
-        <v>0.2236796524958113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176960777209266</v>
+      </c>
+      <c r="E59">
+        <v>0.04683521981605766</v>
+      </c>
+      <c r="F59">
+        <v>-0.03488399898733149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2378698977076503</v>
+        <v>0.232278036092051</v>
       </c>
       <c r="C60">
-        <v>0.001469530381447785</v>
+        <v>-0.001617141964601358</v>
       </c>
       <c r="D60">
-        <v>-0.0465671095852314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03879118114313625</v>
+      </c>
+      <c r="E60">
+        <v>-0.006901544463516669</v>
+      </c>
+      <c r="F60">
+        <v>0.0002554081339799023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08814389514088487</v>
+        <v>0.07979794670863684</v>
       </c>
       <c r="C61">
-        <v>0.01844366609570083</v>
+        <v>0.01128900754297972</v>
       </c>
       <c r="D61">
-        <v>-0.09896114302960309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177617632772043</v>
+      </c>
+      <c r="E61">
+        <v>-0.03912841671160926</v>
+      </c>
+      <c r="F61">
+        <v>0.01384182292515562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1702907059726295</v>
+        <v>0.1687332023201673</v>
       </c>
       <c r="C62">
-        <v>0.02127403850656942</v>
+        <v>0.0209373010278063</v>
       </c>
       <c r="D62">
-        <v>-0.006968309041011918</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004511541550545006</v>
+      </c>
+      <c r="E62">
+        <v>-0.03227178819346315</v>
+      </c>
+      <c r="F62">
+        <v>0.0370856504346426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04406482630222668</v>
+        <v>0.04608256033086915</v>
       </c>
       <c r="C63">
-        <v>0.006164935340666072</v>
+        <v>0.001808841010835097</v>
       </c>
       <c r="D63">
-        <v>-0.04298451919066601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05966996383917105</v>
+      </c>
+      <c r="E63">
+        <v>-0.02415239387113087</v>
+      </c>
+      <c r="F63">
+        <v>0.003711115975499122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1128842491944753</v>
+        <v>0.1109452801262715</v>
       </c>
       <c r="C64">
-        <v>0.01523124887113119</v>
+        <v>0.01162993351759987</v>
       </c>
       <c r="D64">
-        <v>-0.03106517202021339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04349783873364736</v>
+      </c>
+      <c r="E64">
+        <v>-0.022782632233287</v>
+      </c>
+      <c r="F64">
+        <v>0.02610750081122609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1394072151435013</v>
+        <v>0.1511056770799823</v>
       </c>
       <c r="C65">
-        <v>0.03347111307274163</v>
+        <v>0.03440459246177685</v>
       </c>
       <c r="D65">
-        <v>0.04961195071133667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04566695278525039</v>
+      </c>
+      <c r="E65">
+        <v>-0.004690509875118401</v>
+      </c>
+      <c r="F65">
+        <v>0.03650610900610009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1398171885678856</v>
+        <v>0.1236660143778171</v>
       </c>
       <c r="C66">
-        <v>0.02300795937017362</v>
+        <v>0.01379450325164934</v>
       </c>
       <c r="D66">
-        <v>-0.118250158309181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1411708058995922</v>
+      </c>
+      <c r="E66">
+        <v>-0.06401063872811293</v>
+      </c>
+      <c r="F66">
+        <v>0.03458966927262436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06352085425596804</v>
+        <v>0.05691839819005321</v>
       </c>
       <c r="C67">
-        <v>0.005573299566182717</v>
+        <v>0.00282972268427861</v>
       </c>
       <c r="D67">
-        <v>-0.05226669384993125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0556090037803863</v>
+      </c>
+      <c r="E67">
+        <v>-0.0164660225736709</v>
+      </c>
+      <c r="F67">
+        <v>-0.02959234144939095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1040719082939655</v>
+        <v>0.1161900826874682</v>
       </c>
       <c r="C68">
-        <v>0.02151415186252775</v>
+        <v>0.03301604904326916</v>
       </c>
       <c r="D68">
-        <v>0.2719660028654103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2617903482905231</v>
+      </c>
+      <c r="E68">
+        <v>0.08761499064351683</v>
+      </c>
+      <c r="F68">
+        <v>-0.002226902703409589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03986818045828731</v>
+        <v>0.03878696125180863</v>
       </c>
       <c r="C69">
-        <v>0.001826325558571114</v>
+        <v>0.001218588357564337</v>
       </c>
       <c r="D69">
-        <v>-0.00707729307936323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007683907722003499</v>
+      </c>
+      <c r="E69">
+        <v>-0.0232113569911298</v>
+      </c>
+      <c r="F69">
+        <v>0.001050177869447616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06620341449589194</v>
+        <v>0.0658673425558447</v>
       </c>
       <c r="C70">
-        <v>-0.02441300856355889</v>
+        <v>-0.02749955714284415</v>
       </c>
       <c r="D70">
-        <v>0.01098356798640177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02472865989331412</v>
+      </c>
+      <c r="E70">
+        <v>0.03162683753614984</v>
+      </c>
+      <c r="F70">
+        <v>-0.1760428033602074</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1222438097111972</v>
+        <v>0.1356749709080274</v>
       </c>
       <c r="C71">
-        <v>0.02501432064289651</v>
+        <v>0.03740079570501613</v>
       </c>
       <c r="D71">
-        <v>0.2861935787407264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723277533769768</v>
+      </c>
+      <c r="E71">
+        <v>0.09771633264370549</v>
+      </c>
+      <c r="F71">
+        <v>0.004302334518162559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1391503631115188</v>
+        <v>0.1436962977806122</v>
       </c>
       <c r="C72">
-        <v>0.02777067949776711</v>
+        <v>0.02770756280731882</v>
       </c>
       <c r="D72">
-        <v>-0.000599877955126253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004816845701477318</v>
+      </c>
+      <c r="E72">
+        <v>-0.03653746295327717</v>
+      </c>
+      <c r="F72">
+        <v>0.03024073444057111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2065000087080634</v>
+        <v>0.2041251132656798</v>
       </c>
       <c r="C73">
-        <v>0.01717397632441594</v>
+        <v>0.0133470167399395</v>
       </c>
       <c r="D73">
-        <v>-0.01357158328808403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01669002084665644</v>
+      </c>
+      <c r="E73">
+        <v>-0.06346616049116628</v>
+      </c>
+      <c r="F73">
+        <v>0.03931941969672909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09355760179192293</v>
+        <v>0.09563602516256534</v>
       </c>
       <c r="C74">
-        <v>0.0139550667979058</v>
+        <v>0.01381963629229305</v>
       </c>
       <c r="D74">
-        <v>-0.02005352002559528</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01541999890039131</v>
+      </c>
+      <c r="E74">
+        <v>-0.04343955781852541</v>
+      </c>
+      <c r="F74">
+        <v>0.05607514305686621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338876129255733</v>
+        <v>0.1273296585911347</v>
       </c>
       <c r="C75">
-        <v>0.03015809283596263</v>
+        <v>0.02861810341132737</v>
       </c>
       <c r="D75">
-        <v>-0.02906026039709721</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02831271388975084</v>
+      </c>
+      <c r="E75">
+        <v>-0.05618850195411407</v>
+      </c>
+      <c r="F75">
+        <v>0.02255524908076017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08424957329065984</v>
+        <v>0.08967437121985131</v>
       </c>
       <c r="C77">
-        <v>0.01553622754888137</v>
+        <v>0.008067959851442966</v>
       </c>
       <c r="D77">
-        <v>-0.09424700952148272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1138192298561926</v>
+      </c>
+      <c r="E77">
+        <v>-0.04353615816266495</v>
+      </c>
+      <c r="F77">
+        <v>0.03455819861444995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1038078393800549</v>
+        <v>0.1004486318915337</v>
       </c>
       <c r="C78">
-        <v>0.04621774527580342</v>
+        <v>0.03945131929781702</v>
       </c>
       <c r="D78">
-        <v>-0.1030034217028727</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.115024378903786</v>
+      </c>
+      <c r="E78">
+        <v>-0.0760962186761111</v>
+      </c>
+      <c r="F78">
+        <v>0.05010043102946189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1640963486335327</v>
+        <v>0.1636675239540814</v>
       </c>
       <c r="C79">
-        <v>0.02442362367079118</v>
+        <v>0.02343102715452762</v>
       </c>
       <c r="D79">
-        <v>-0.01372269618631677</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01167811798459017</v>
+      </c>
+      <c r="E79">
+        <v>-0.04414806241478512</v>
+      </c>
+      <c r="F79">
+        <v>0.01175316423140498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08654995500384904</v>
+        <v>0.08255054886457894</v>
       </c>
       <c r="C80">
-        <v>0.002096941493558797</v>
+        <v>-0.0004748247838970183</v>
       </c>
       <c r="D80">
-        <v>-0.04336617065272708</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05552186367780596</v>
+      </c>
+      <c r="E80">
+        <v>-0.03549376464516629</v>
+      </c>
+      <c r="F80">
+        <v>-0.0191840899281483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1197915975393998</v>
+        <v>0.1179209932890155</v>
       </c>
       <c r="C81">
-        <v>0.03234951050300326</v>
+        <v>0.03211411470908991</v>
       </c>
       <c r="D81">
-        <v>-0.02339484313406456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0135148932154031</v>
+      </c>
+      <c r="E81">
+        <v>-0.05464850427824174</v>
+      </c>
+      <c r="F81">
+        <v>0.01980462883136102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660518615279223</v>
+        <v>0.1662558168958659</v>
       </c>
       <c r="C82">
-        <v>0.02508844494768006</v>
+        <v>0.02565090248549533</v>
       </c>
       <c r="D82">
-        <v>-0.01270268263492623</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001022977758147262</v>
+      </c>
+      <c r="E82">
+        <v>-0.02447714966878191</v>
+      </c>
+      <c r="F82">
+        <v>0.08070491587681936</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06623511742503664</v>
+        <v>0.05820632648577194</v>
       </c>
       <c r="C83">
-        <v>0.006146060416880707</v>
+        <v>0.00291951130287182</v>
       </c>
       <c r="D83">
-        <v>-0.03394081118242365</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04931927906880618</v>
+      </c>
+      <c r="E83">
+        <v>-0.002461867456194867</v>
+      </c>
+      <c r="F83">
+        <v>-0.02896479672990249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06417003340612473</v>
+        <v>0.05835531113552095</v>
       </c>
       <c r="C84">
-        <v>0.01482787073730445</v>
+        <v>0.01084426991112244</v>
       </c>
       <c r="D84">
-        <v>-0.06492900723530388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07248782604654888</v>
+      </c>
+      <c r="E84">
+        <v>-0.01459867274358878</v>
+      </c>
+      <c r="F84">
+        <v>0.01409247576878348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.137283980165095</v>
+        <v>0.135298764744454</v>
       </c>
       <c r="C85">
-        <v>0.0285993358992993</v>
+        <v>0.02858054103920518</v>
       </c>
       <c r="D85">
-        <v>-0.01759535712571648</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007795357736575269</v>
+      </c>
+      <c r="E85">
+        <v>-0.03511375724028847</v>
+      </c>
+      <c r="F85">
+        <v>0.04699443776923209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1017895882963943</v>
+        <v>0.09308352517677719</v>
       </c>
       <c r="C86">
-        <v>-0.002848009380607639</v>
+        <v>-0.006303842152285481</v>
       </c>
       <c r="D86">
-        <v>0.003652165439039146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05059536021334586</v>
+      </c>
+      <c r="E86">
+        <v>-0.2423639304839786</v>
+      </c>
+      <c r="F86">
+        <v>-0.9032405064718424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09970972460886277</v>
+        <v>0.09360915971228559</v>
       </c>
       <c r="C87">
-        <v>0.02874304131254935</v>
+        <v>0.01917028581103725</v>
       </c>
       <c r="D87">
-        <v>-0.06631739881043265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09453033901857325</v>
+      </c>
+      <c r="E87">
+        <v>0.052872358721161</v>
+      </c>
+      <c r="F87">
+        <v>0.04764955530909366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06059965597600626</v>
+        <v>0.06006209213232283</v>
       </c>
       <c r="C88">
-        <v>0.005222349910390107</v>
+        <v>0.002286394876957947</v>
       </c>
       <c r="D88">
-        <v>-0.05396081097438721</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0496828340955724</v>
+      </c>
+      <c r="E88">
+        <v>-0.02390483338365983</v>
+      </c>
+      <c r="F88">
+        <v>0.01525677713124373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1158121046505648</v>
+        <v>0.1260514153859112</v>
       </c>
       <c r="C89">
-        <v>0.002309284064942344</v>
+        <v>0.01266094474587231</v>
       </c>
       <c r="D89">
-        <v>0.2627061441930793</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2438004031423321</v>
+      </c>
+      <c r="E89">
+        <v>0.08986309485995271</v>
+      </c>
+      <c r="F89">
+        <v>-0.01239556905555152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1331325068900009</v>
+        <v>0.150462090385265</v>
       </c>
       <c r="C90">
-        <v>0.02184556430953232</v>
+        <v>0.03403560412884076</v>
       </c>
       <c r="D90">
-        <v>0.274514219194188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701630608764479</v>
+      </c>
+      <c r="E90">
+        <v>0.1134648643442453</v>
+      </c>
+      <c r="F90">
+        <v>-0.01243601339165408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1200439753106328</v>
+        <v>0.1213310056527235</v>
       </c>
       <c r="C91">
-        <v>0.01947413116732283</v>
+        <v>0.02023850073462751</v>
       </c>
       <c r="D91">
-        <v>0.009224669459602763</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01708254920788629</v>
+      </c>
+      <c r="E91">
+        <v>-0.05431794416746788</v>
+      </c>
+      <c r="F91">
+        <v>-0.0006827681845317136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1363083273661713</v>
+        <v>0.1460660951051032</v>
       </c>
       <c r="C92">
-        <v>0.01172033546687112</v>
+        <v>0.02456565091976175</v>
       </c>
       <c r="D92">
-        <v>0.3095165090775717</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2900897630233012</v>
+      </c>
+      <c r="E92">
+        <v>0.1019715454588974</v>
+      </c>
+      <c r="F92">
+        <v>-0.02140685470294578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1365565836289573</v>
+        <v>0.1507370492066696</v>
       </c>
       <c r="C93">
-        <v>0.01738711134416152</v>
+        <v>0.02885564674305544</v>
       </c>
       <c r="D93">
-        <v>0.2701843167981801</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2654948064274057</v>
+      </c>
+      <c r="E93">
+        <v>0.07608925410699525</v>
+      </c>
+      <c r="F93">
+        <v>-0.001827169976936446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344580673222439</v>
+        <v>0.1279991305215543</v>
       </c>
       <c r="C94">
-        <v>0.02721476631639266</v>
+        <v>0.02501257150159627</v>
       </c>
       <c r="D94">
-        <v>-0.04301746401744675</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04007427241285406</v>
+      </c>
+      <c r="E94">
+        <v>-0.05631751065384361</v>
+      </c>
+      <c r="F94">
+        <v>0.03564485120678669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1263594009943983</v>
+        <v>0.1266436834294699</v>
       </c>
       <c r="C95">
-        <v>0.01044567107566989</v>
+        <v>0.003357626193132553</v>
       </c>
       <c r="D95">
-        <v>-0.07785502019857626</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09812169979690111</v>
+      </c>
+      <c r="E95">
+        <v>-0.05342725101853826</v>
+      </c>
+      <c r="F95">
+        <v>-0.005241671155369026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1192270711433347</v>
+        <v>0.1110877187120726</v>
       </c>
       <c r="C96">
-        <v>-0.9871036744105014</v>
+        <v>-0.9869435328589475</v>
       </c>
       <c r="D96">
-        <v>0.01011650529440276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0509581255198912</v>
+      </c>
+      <c r="E96">
+        <v>-0.05214921654261738</v>
+      </c>
+      <c r="F96">
+        <v>0.04288753884440905</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1925712132488222</v>
+        <v>0.1933175610698762</v>
       </c>
       <c r="C97">
-        <v>-0.005717367997716468</v>
+        <v>-0.005902454990670577</v>
       </c>
       <c r="D97">
-        <v>0.01348488253997272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02026911801041325</v>
+      </c>
+      <c r="E97">
+        <v>-0.02116830198652655</v>
+      </c>
+      <c r="F97">
+        <v>-0.0935527560466676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1988554883482043</v>
+        <v>0.2063398702567096</v>
       </c>
       <c r="C98">
-        <v>0.01130016813283083</v>
+        <v>0.007318246502925138</v>
       </c>
       <c r="D98">
-        <v>-0.01144817325955299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01327870443083163</v>
+      </c>
+      <c r="E98">
+        <v>0.0749911334898662</v>
+      </c>
+      <c r="F98">
+        <v>-0.09206798079799614</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05624238301705584</v>
+        <v>0.05477194211945309</v>
       </c>
       <c r="C99">
-        <v>-0.002001578922743931</v>
+        <v>-0.004397221952571585</v>
       </c>
       <c r="D99">
-        <v>-0.02251752371970629</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03825664468376105</v>
+      </c>
+      <c r="E99">
+        <v>-0.02118898363459139</v>
+      </c>
+      <c r="F99">
+        <v>0.003276892781523622</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1428656452982311</v>
+        <v>0.1290650010689633</v>
       </c>
       <c r="C100">
-        <v>-0.0373054893795236</v>
+        <v>-0.05250835655507482</v>
       </c>
       <c r="D100">
-        <v>-0.419014380625899</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3501361272753591</v>
+      </c>
+      <c r="E100">
+        <v>0.882844502761702</v>
+      </c>
+      <c r="F100">
+        <v>-0.1683189524569988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02620642348267122</v>
+        <v>0.0286646444283968</v>
       </c>
       <c r="C101">
-        <v>0.009729781281156201</v>
+        <v>0.008779316972999758</v>
       </c>
       <c r="D101">
-        <v>-0.02194072049677024</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03085646406440053</v>
+      </c>
+      <c r="E101">
+        <v>-0.01336023094928832</v>
+      </c>
+      <c r="F101">
+        <v>-0.01374574124058639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
